--- a/medicine/Enfance/Pédagogie_noire/Pédagogie_noire.xlsx
+++ b/medicine/Enfance/Pédagogie_noire/Pédagogie_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9dagogie_noire</t>
+          <t>Pédagogie_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pédagogie noire (en allemand : Schwarze Pädagogik) est une forme d'éducation répressive visant à soumettre les enfants par diverses méthodes qui incluent aussi bien les châtiments corporels que la manipulation mentale.
-Des principes régis par le précepte "Qui aime bien châtie bien", qu'Alice Miller qualifie de "pédagogie noire", brisent, selon elle, la volonté de l'enfant pour en faire un être docile et obéissant, mais sujet à de douloureux conflits intérieurs[1].
-Cette notion a été définie par Katharina Rutschky dans son essai Schwarze Pädagogik. Quellen zur Naturgeschichte der bürgerlichen Erziehung (1977) et popularisée quelques années plus tard par Alice Miller dans son ouvrage C'est pour ton bien[2]. Toutes deux en ont dénoncé les mécanismes destructeurs.
+Des principes régis par le précepte "Qui aime bien châtie bien", qu'Alice Miller qualifie de "pédagogie noire", brisent, selon elle, la volonté de l'enfant pour en faire un être docile et obéissant, mais sujet à de douloureux conflits intérieurs.
+Cette notion a été définie par Katharina Rutschky dans son essai Schwarze Pädagogik. Quellen zur Naturgeschichte der bürgerlichen Erziehung (1977) et popularisée quelques années plus tard par Alice Miller dans son ouvrage C'est pour ton bien. Toutes deux en ont dénoncé les mécanismes destructeurs.
 Moritz Schreber, le père de Daniel Paul Schreber, est l'un des principaux adeptes de ce type d'éducation.
 </t>
         </is>
